--- a/PMOInformatica Plantilla de Product Backlog.xlsx
+++ b/PMOInformatica Plantilla de Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Israel\Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D69050-31AB-485D-BD6D-C5570C3A2EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16D23E5-C94F-41A1-9C46-0F6EE5915EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,13 +1026,13 @@
     </row>
     <row r="9" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>86</v>
@@ -1040,14 +1040,14 @@
       <c r="F9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>89</v>
+      <c r="G9" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1078,13 +1078,13 @@
     </row>
     <row r="11" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>86</v>
@@ -1092,14 +1092,14 @@
       <c r="F11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>91</v>
+      <c r="G11" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
